--- a/survey_plots/Skill Scanner_ KI für die Analyse von Fähigkeiten (Antwoorden).xlsx
+++ b/survey_plots/Skill Scanner_ KI für die Analyse von Fähigkeiten (Antwoorden).xlsx
@@ -509,10 +509,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <name val="Arial"/>
     </font>
     <font>
@@ -548,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -558,19 +561,25 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -2393,801 +2402,801 @@
       <c r="A26" s="5">
         <v>44515.343217835645</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="7">
         <v>5.0</v>
       </c>
-      <c r="H26" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="I26" s="1" t="s">
+      <c r="H26" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="I26" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J26" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="K26" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="L26" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="M26" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="N26" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="O26" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="P26" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="Q26" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="R26" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="S26" s="1" t="s">
+      <c r="L26" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="O26" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="P26" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="R26" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="S26" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
-      <c r="AD26" s="1"/>
-      <c r="AE26" s="1"/>
-      <c r="AF26" s="1"/>
-      <c r="AG26" s="1"/>
-      <c r="AH26" s="1"/>
-      <c r="AI26" s="1"/>
-      <c r="AJ26" s="1"/>
-      <c r="AK26" s="1"/>
-      <c r="AL26" s="1"/>
-      <c r="AM26" s="1"/>
-      <c r="AN26" s="1"/>
-      <c r="AO26" s="1"/>
-      <c r="AP26" s="1"/>
-      <c r="AQ26" s="1"/>
-      <c r="AR26" s="1"/>
-      <c r="AS26" s="1"/>
-      <c r="AT26" s="1"/>
-      <c r="AU26" s="1"/>
-      <c r="AV26" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="AW26" s="1" t="s">
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="6"/>
+      <c r="AD26" s="6"/>
+      <c r="AE26" s="6"/>
+      <c r="AF26" s="6"/>
+      <c r="AG26" s="6"/>
+      <c r="AH26" s="6"/>
+      <c r="AI26" s="6"/>
+      <c r="AJ26" s="6"/>
+      <c r="AK26" s="6"/>
+      <c r="AL26" s="6"/>
+      <c r="AM26" s="6"/>
+      <c r="AN26" s="6"/>
+      <c r="AO26" s="6"/>
+      <c r="AP26" s="6"/>
+      <c r="AQ26" s="6"/>
+      <c r="AR26" s="6"/>
+      <c r="AS26" s="6"/>
+      <c r="AT26" s="6"/>
+      <c r="AU26" s="6"/>
+      <c r="AV26" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="AW26" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="AX26" s="1" t="s">
+      <c r="AX26" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="AY26" s="1" t="s">
+      <c r="AY26" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="AZ26" s="1"/>
-      <c r="BA26" s="1"/>
-      <c r="BB26" s="1"/>
-      <c r="BC26" s="1"/>
-      <c r="BD26" s="1"/>
-      <c r="BE26" s="1"/>
+      <c r="AZ26" s="6"/>
+      <c r="BA26" s="6"/>
+      <c r="BB26" s="6"/>
+      <c r="BC26" s="6"/>
+      <c r="BD26" s="6"/>
+      <c r="BE26" s="6"/>
     </row>
     <row r="27">
       <c r="A27" s="5">
         <v>44515.41942774305</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="W27" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="X27" s="1" t="s">
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="W27" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="X27" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="Y27" s="1" t="s">
+      <c r="Y27" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="Z27" s="1" t="s">
+      <c r="Z27" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="AA27" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="AB27" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="AC27" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="AD27" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="AE27" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="AF27" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="AG27" s="1" t="s">
+      <c r="AA27" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="AB27" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="AC27" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="AD27" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="AE27" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="AF27" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="AG27" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="AH27" s="2" t="s">
+      <c r="AH27" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="AI27" s="7"/>
-      <c r="AJ27" s="7"/>
-      <c r="AK27" s="7"/>
-      <c r="AL27" s="7"/>
-      <c r="AM27" s="7"/>
-      <c r="AN27" s="7"/>
-      <c r="AO27" s="1"/>
-      <c r="AP27" s="1"/>
-      <c r="AQ27" s="1"/>
-      <c r="AR27" s="1"/>
-      <c r="AS27" s="1"/>
-      <c r="AT27" s="1"/>
-      <c r="AU27" s="1"/>
-      <c r="AV27" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="AW27" s="1" t="s">
+      <c r="AI27" s="9"/>
+      <c r="AJ27" s="9"/>
+      <c r="AK27" s="9"/>
+      <c r="AL27" s="9"/>
+      <c r="AM27" s="9"/>
+      <c r="AN27" s="9"/>
+      <c r="AO27" s="6"/>
+      <c r="AP27" s="6"/>
+      <c r="AQ27" s="6"/>
+      <c r="AR27" s="6"/>
+      <c r="AS27" s="6"/>
+      <c r="AT27" s="6"/>
+      <c r="AU27" s="6"/>
+      <c r="AV27" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="AW27" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="AX27" s="1" t="s">
+      <c r="AX27" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="AY27" s="1"/>
-      <c r="AZ27" s="1"/>
-      <c r="BA27" s="1"/>
-      <c r="BB27" s="1"/>
-      <c r="BC27" s="1"/>
-      <c r="BD27" s="1"/>
-      <c r="BE27" s="1"/>
+      <c r="AY27" s="6"/>
+      <c r="AZ27" s="6"/>
+      <c r="BA27" s="6"/>
+      <c r="BB27" s="6"/>
+      <c r="BC27" s="6"/>
+      <c r="BD27" s="6"/>
+      <c r="BE27" s="6"/>
     </row>
     <row r="28">
       <c r="A28" s="5">
         <v>44517.38815766203</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="1"/>
-      <c r="AC28" s="1"/>
-      <c r="AD28" s="1"/>
-      <c r="AE28" s="1"/>
-      <c r="AF28" s="1"/>
-      <c r="AG28" s="1"/>
-      <c r="AH28" s="1"/>
-      <c r="AI28" s="1"/>
-      <c r="AJ28" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="AK28" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="AL28" s="1" t="s">
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="6"/>
+      <c r="AE28" s="6"/>
+      <c r="AF28" s="6"/>
+      <c r="AG28" s="6"/>
+      <c r="AH28" s="6"/>
+      <c r="AI28" s="6"/>
+      <c r="AJ28" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="AK28" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="AL28" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="AM28" s="1" t="s">
+      <c r="AM28" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="AN28" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="AO28" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="AP28" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="AQ28" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="AR28" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="AS28" s="1" t="s">
+      <c r="AN28" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="AO28" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="AP28" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="AQ28" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="AR28" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="AS28" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="AT28" s="1"/>
-      <c r="AU28" s="1"/>
-      <c r="AV28" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="AW28" s="1"/>
-      <c r="AX28" s="1"/>
-      <c r="AY28" s="1"/>
-      <c r="AZ28" s="1"/>
-      <c r="BA28" s="1"/>
-      <c r="BB28" s="1"/>
-      <c r="BC28" s="1"/>
-      <c r="BD28" s="1"/>
-      <c r="BE28" s="1"/>
+      <c r="AT28" s="6"/>
+      <c r="AU28" s="6"/>
+      <c r="AV28" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="AW28" s="6"/>
+      <c r="AX28" s="6"/>
+      <c r="AY28" s="6"/>
+      <c r="AZ28" s="6"/>
+      <c r="BA28" s="6"/>
+      <c r="BB28" s="6"/>
+      <c r="BC28" s="6"/>
+      <c r="BD28" s="6"/>
+      <c r="BE28" s="6"/>
     </row>
     <row r="29">
       <c r="A29" s="5">
         <v>44517.460345879634</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
-      <c r="AA29" s="1"/>
-      <c r="AB29" s="1"/>
-      <c r="AC29" s="1"/>
-      <c r="AD29" s="1"/>
-      <c r="AE29" s="1"/>
-      <c r="AF29" s="1"/>
-      <c r="AG29" s="1"/>
-      <c r="AH29" s="1"/>
-      <c r="AI29" s="1"/>
-      <c r="AJ29" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="AK29" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="AL29" s="1" t="s">
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="6"/>
+      <c r="AG29" s="6"/>
+      <c r="AH29" s="6"/>
+      <c r="AI29" s="6"/>
+      <c r="AJ29" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="AK29" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="AL29" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="AM29" s="1" t="s">
+      <c r="AM29" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="AN29" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="AO29" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="AP29" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="AQ29" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="AR29" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="AS29" s="1" t="s">
+      <c r="AN29" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="AO29" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="AP29" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="AQ29" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="AR29" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="AS29" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="AT29" s="1"/>
-      <c r="AU29" s="1"/>
-      <c r="AV29" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="AW29" s="1" t="s">
+      <c r="AT29" s="6"/>
+      <c r="AU29" s="6"/>
+      <c r="AV29" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="AW29" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="AX29" s="2" t="s">
+      <c r="AX29" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="AY29" s="1"/>
-      <c r="AZ29" s="1"/>
-      <c r="BA29" s="1"/>
-      <c r="BB29" s="1"/>
-      <c r="BC29" s="1"/>
-      <c r="BD29" s="1"/>
-      <c r="BE29" s="1"/>
+      <c r="AY29" s="6"/>
+      <c r="AZ29" s="6"/>
+      <c r="BA29" s="6"/>
+      <c r="BB29" s="6"/>
+      <c r="BC29" s="6"/>
+      <c r="BD29" s="6"/>
+      <c r="BE29" s="6"/>
     </row>
     <row r="30">
       <c r="A30" s="5">
         <v>44515.45464327546</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="W30" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="X30" s="1" t="s">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="W30" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="X30" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="Y30" s="1" t="s">
+      <c r="Y30" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="Z30" s="1" t="s">
+      <c r="Z30" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="AA30" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="AB30" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="AC30" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="AD30" s="6">
+      <c r="AA30" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="AB30" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="AC30" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="AD30" s="7">
         <v>2.0</v>
       </c>
-      <c r="AE30" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="AF30" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="AG30" s="1" t="s">
+      <c r="AE30" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="AF30" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="AG30" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="AH30" s="1"/>
-      <c r="AI30" s="1"/>
-      <c r="AJ30" s="1"/>
-      <c r="AK30" s="1"/>
-      <c r="AL30" s="1"/>
-      <c r="AM30" s="1"/>
-      <c r="AN30" s="1"/>
-      <c r="AO30" s="1"/>
-      <c r="AP30" s="1"/>
-      <c r="AQ30" s="1"/>
-      <c r="AR30" s="1"/>
-      <c r="AS30" s="1"/>
-      <c r="AT30" s="1"/>
-      <c r="AU30" s="1"/>
-      <c r="AV30" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="AW30" s="2" t="s">
+      <c r="AH30" s="6"/>
+      <c r="AI30" s="6"/>
+      <c r="AJ30" s="6"/>
+      <c r="AK30" s="6"/>
+      <c r="AL30" s="6"/>
+      <c r="AM30" s="6"/>
+      <c r="AN30" s="6"/>
+      <c r="AO30" s="6"/>
+      <c r="AP30" s="6"/>
+      <c r="AQ30" s="6"/>
+      <c r="AR30" s="6"/>
+      <c r="AS30" s="6"/>
+      <c r="AT30" s="6"/>
+      <c r="AU30" s="6"/>
+      <c r="AV30" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="AW30" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="AX30" s="1"/>
-      <c r="AY30" s="2" t="s">
+      <c r="AX30" s="6"/>
+      <c r="AY30" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="AZ30" s="1"/>
-      <c r="BA30" s="1"/>
-      <c r="BB30" s="1"/>
-      <c r="BC30" s="1"/>
-      <c r="BD30" s="1"/>
-      <c r="BE30" s="1"/>
+      <c r="AZ30" s="6"/>
+      <c r="BA30" s="6"/>
+      <c r="BB30" s="6"/>
+      <c r="BC30" s="6"/>
+      <c r="BD30" s="6"/>
+      <c r="BE30" s="6"/>
     </row>
     <row r="31">
       <c r="A31" s="5">
         <v>44515.52003166667</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="W31" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="X31" s="1" t="s">
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="W31" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="X31" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="Y31" s="1" t="s">
+      <c r="Y31" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="Z31" s="1" t="s">
+      <c r="Z31" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="AA31" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="AB31" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="AC31" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="AD31" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="AE31" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="AF31" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="AG31" s="1" t="s">
+      <c r="AA31" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="AB31" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="AC31" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="AD31" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="AE31" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="AF31" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="AG31" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="AH31" s="1"/>
-      <c r="AI31" s="1"/>
-      <c r="AJ31" s="1"/>
-      <c r="AK31" s="1"/>
-      <c r="AL31" s="1"/>
-      <c r="AM31" s="1"/>
-      <c r="AN31" s="1"/>
-      <c r="AO31" s="1"/>
-      <c r="AP31" s="1"/>
-      <c r="AQ31" s="1"/>
-      <c r="AR31" s="1"/>
-      <c r="AS31" s="1"/>
-      <c r="AT31" s="1"/>
-      <c r="AU31" s="1"/>
-      <c r="AV31" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="AW31" s="1"/>
-      <c r="AX31" s="1"/>
-      <c r="AY31" s="1"/>
-      <c r="AZ31" s="1"/>
-      <c r="BA31" s="1"/>
-      <c r="BB31" s="1"/>
-      <c r="BC31" s="1"/>
-      <c r="BD31" s="1"/>
-      <c r="BE31" s="1"/>
+      <c r="AH31" s="6"/>
+      <c r="AI31" s="6"/>
+      <c r="AJ31" s="6"/>
+      <c r="AK31" s="6"/>
+      <c r="AL31" s="6"/>
+      <c r="AM31" s="6"/>
+      <c r="AN31" s="6"/>
+      <c r="AO31" s="6"/>
+      <c r="AP31" s="6"/>
+      <c r="AQ31" s="6"/>
+      <c r="AR31" s="6"/>
+      <c r="AS31" s="6"/>
+      <c r="AT31" s="6"/>
+      <c r="AU31" s="6"/>
+      <c r="AV31" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="AW31" s="6"/>
+      <c r="AX31" s="6"/>
+      <c r="AY31" s="6"/>
+      <c r="AZ31" s="6"/>
+      <c r="BA31" s="6"/>
+      <c r="BB31" s="6"/>
+      <c r="BC31" s="6"/>
+      <c r="BD31" s="6"/>
+      <c r="BE31" s="6"/>
     </row>
     <row r="32">
       <c r="A32" s="5">
         <v>44515.55890055555</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="W32" s="6">
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="W32" s="7">
         <v>5.0</v>
       </c>
-      <c r="X32" s="1" t="s">
+      <c r="X32" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="Y32" s="1" t="s">
+      <c r="Y32" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="Z32" s="1" t="s">
+      <c r="Z32" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="AA32" s="6">
+      <c r="AA32" s="7">
         <v>2.0</v>
       </c>
-      <c r="AB32" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="AC32" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="AD32" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="AE32" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="AF32" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="AG32" s="1" t="s">
+      <c r="AB32" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="AC32" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="AD32" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="AE32" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="AF32" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="AG32" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="AH32" s="1"/>
-      <c r="AI32" s="2" t="s">
+      <c r="AH32" s="6"/>
+      <c r="AI32" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="AJ32" s="7"/>
-      <c r="AK32" s="7"/>
-      <c r="AL32" s="7"/>
-      <c r="AM32" s="7"/>
-      <c r="AN32" s="7"/>
-      <c r="AO32" s="7"/>
-      <c r="AP32" s="7"/>
-      <c r="AQ32" s="7"/>
-      <c r="AR32" s="7"/>
-      <c r="AS32" s="7"/>
-      <c r="AT32" s="7"/>
-      <c r="AU32" s="1"/>
-      <c r="AV32" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="AW32" s="2" t="s">
+      <c r="AJ32" s="9"/>
+      <c r="AK32" s="9"/>
+      <c r="AL32" s="9"/>
+      <c r="AM32" s="9"/>
+      <c r="AN32" s="9"/>
+      <c r="AO32" s="9"/>
+      <c r="AP32" s="9"/>
+      <c r="AQ32" s="9"/>
+      <c r="AR32" s="9"/>
+      <c r="AS32" s="9"/>
+      <c r="AT32" s="9"/>
+      <c r="AU32" s="6"/>
+      <c r="AV32" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="AW32" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="AX32" s="7"/>
-      <c r="AY32" s="1"/>
-      <c r="AZ32" s="1"/>
-      <c r="BA32" s="1"/>
-      <c r="BB32" s="1"/>
-      <c r="BC32" s="1"/>
-      <c r="BD32" s="1"/>
-      <c r="BE32" s="1"/>
+      <c r="AX32" s="9"/>
+      <c r="AY32" s="6"/>
+      <c r="AZ32" s="6"/>
+      <c r="BA32" s="6"/>
+      <c r="BB32" s="6"/>
+      <c r="BC32" s="6"/>
+      <c r="BD32" s="6"/>
+      <c r="BE32" s="6"/>
     </row>
     <row r="33">
       <c r="A33" s="5">
         <v>44515.70799425926</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="W33" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="X33" s="1" t="s">
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="W33" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="X33" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="Y33" s="1" t="s">
+      <c r="Y33" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="Z33" s="1" t="s">
+      <c r="Z33" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="AA33" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="AB33" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="AC33" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="AD33" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="AE33" s="6">
+      <c r="AA33" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="AB33" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="AC33" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="AD33" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="AE33" s="7">
         <v>2.0</v>
       </c>
-      <c r="AF33" s="6">
+      <c r="AF33" s="7">
         <v>2.0</v>
       </c>
-      <c r="AG33" s="1" t="s">
+      <c r="AG33" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="AH33" s="1"/>
-      <c r="AI33" s="1"/>
-      <c r="AJ33" s="1"/>
-      <c r="AK33" s="1"/>
-      <c r="AL33" s="1"/>
-      <c r="AM33" s="1"/>
-      <c r="AN33" s="1"/>
-      <c r="AO33" s="1"/>
-      <c r="AP33" s="1"/>
-      <c r="AQ33" s="1"/>
-      <c r="AR33" s="1"/>
-      <c r="AS33" s="1"/>
-      <c r="AT33" s="1"/>
-      <c r="AU33" s="1"/>
-      <c r="AV33" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="AW33" s="1" t="s">
+      <c r="AH33" s="6"/>
+      <c r="AI33" s="6"/>
+      <c r="AJ33" s="6"/>
+      <c r="AK33" s="6"/>
+      <c r="AL33" s="6"/>
+      <c r="AM33" s="6"/>
+      <c r="AN33" s="6"/>
+      <c r="AO33" s="6"/>
+      <c r="AP33" s="6"/>
+      <c r="AQ33" s="6"/>
+      <c r="AR33" s="6"/>
+      <c r="AS33" s="6"/>
+      <c r="AT33" s="6"/>
+      <c r="AU33" s="6"/>
+      <c r="AV33" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="AW33" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="AX33" s="1" t="s">
+      <c r="AX33" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="AY33" s="1" t="s">
+      <c r="AY33" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="AZ33" s="1"/>
-      <c r="BA33" s="1"/>
-      <c r="BB33" s="1"/>
-      <c r="BC33" s="1"/>
-      <c r="BD33" s="1"/>
-      <c r="BE33" s="1"/>
+      <c r="AZ33" s="6"/>
+      <c r="BA33" s="6"/>
+      <c r="BB33" s="6"/>
+      <c r="BC33" s="6"/>
+      <c r="BD33" s="6"/>
+      <c r="BE33" s="6"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
